--- a/TestData/ExSheet.xlsx
+++ b/TestData/ExSheet.xlsx
@@ -19,31 +19,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>visual_user</t>
+  </si>
+  <si>
+    <t>secret_sauce</t>
+  </si>
+  <si>
+    <t>error_user</t>
   </si>
   <si>
     <t>standard_user</t>
   </si>
   <si>
-    <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>locked_out_user</t>
-  </si>
-  <si>
-    <t>problem_user</t>
-  </si>
-  <si>
     <t>performance_glitch_user</t>
-  </si>
-  <si>
-    <t>error_user</t>
-  </si>
-  <si>
-    <t>visual_user</t>
   </si>
 </sst>
 </file>
@@ -374,13 +368,13 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85547" customWidth="1"/>
-    <col min="2" max="2" width="23.57031" customWidth="1"/>
+    <col min="1" max="1" width="30.71094" customWidth="1"/>
+    <col min="2" max="2" width="19.14063" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -424,20 +418,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
     </row>
   </sheetData>
 </worksheet>
